--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497921.7585275485</v>
+        <v>506352.3974841033</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>55.26115413364287</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>106.6874096712025</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>22.35721597089392</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>241.0142888776591</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1512,7 +1512,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1543,40 +1543,40 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2688435992604513</v>
+        <v>63.14223173826442</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1780,40 +1780,40 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="19">
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,17 +2081,17 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.31192385075794</v>
+        <v>49.4201979626765</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>7.185390953068242</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>89.75619044871831</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,22 +2798,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>230.2038249569696</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2874,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.22957948968497</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>173.3505949744231</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2688435992603388</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>132.9689388813999</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S42" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,10 +3882,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>82.69355372315668</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4349,22 +4349,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
         <v>19.28114311021272</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4410,13 +4410,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="4">
@@ -4477,16 +4477,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>581.7526260239764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>432.8182163627251</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>273.5807613572696</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>127.0462033841546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4659,37 +4659,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
         <v>231.8830517671884</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.6362025240296</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C9" t="n">
-        <v>347.6362025240296</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>555.4877027295624</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X9" t="n">
-        <v>347.6362025240296</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y9" t="n">
-        <v>347.6362025240296</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5075,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,19 +5145,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>726.1056462496665</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U12" t="n">
-        <v>497.8820279860555</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5224,25 +5224,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,43 +5364,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>963.785596319464</v>
+        <v>900.2771234517833</v>
       </c>
       <c r="S15" t="n">
-        <v>790.3682517701329</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="T15" t="n">
-        <v>588.181657128899</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U15" t="n">
-        <v>588.181657128899</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V15" t="n">
-        <v>353.0295488971563</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
         <v>19.28114311021272</v>
@@ -5461,25 +5461,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5604,40 +5604,40 @@
         <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5698,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5729,13 +5729,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,25 +5771,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
         <v>262.7299197543128</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>259.0600686093459</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="C21" t="n">
-        <v>259.0600686093459</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="D21" t="n">
-        <v>259.0600686093459</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="E21" t="n">
-        <v>259.0600686093459</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="F21" t="n">
-        <v>112.5255106362308</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X21" t="n">
-        <v>259.0600686093459</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.0600686093459</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>609.3459713618265</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>401.4944711562937</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6172,10 +6172,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6236,40 +6236,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629626</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629626</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.2295980564601</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C27" t="n">
-        <v>185.7765687753331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D27" t="n">
-        <v>185.7765687753331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E27" t="n">
-        <v>26.53911376987762</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F27" t="n">
-        <v>26.53911376987762</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.810101014164</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>851.810101014164</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>873.394336875567</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>873.394336875567</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>645.1707186119561</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>410.0186103802134</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="X27" t="n">
-        <v>360.2295980564601</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="Y27" t="n">
-        <v>360.2295980564601</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="28">
@@ -6418,10 +6418,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>251.8102592283639</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>251.8102592283639</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>251.8102592283639</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6473,40 +6473,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P29" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>251.8102592283639</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>411.587349213889</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C30" t="n">
-        <v>237.1343199327619</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>88.19991027151067</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.810101014164</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.587349213889</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>526.7184526376595</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2696759935595</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>75.41817578802664</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255.9366034337592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>255.9366034337592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>255.9366034337592</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>255.9366034337592</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>255.9366034337592</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7020,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>353.3011080883284</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>109.8523314442283</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>109.8523314442283</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>109.8523314442283</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7138,7 +7138,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>352.9716273967953</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>352.9716273967953</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>352.9716273967953</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>352.9716273967953</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7360,16 +7360,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S42" t="n">
-        <v>726.1056462496665</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T42" t="n">
-        <v>726.1056462496665</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U42" t="n">
-        <v>497.8820279860555</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543128</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102.8099852548154</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C45" t="n">
-        <v>102.8099852548154</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8099852548154</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7731,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>310.5702840197694</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.8099852548154</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9252,7 +9252,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10917,10 +10917,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>328.0572133466886</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22629,16 +22629,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>82.08236302956777</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22671,13 +22671,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>385.0216197318741</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,19 +22863,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>30.65610749200818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22908,25 +22908,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23030,13 +23030,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9120779467108</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23063,13 +23063,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23078,13 +23078,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,22 +23100,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>125.0878495937448</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>47.56280698067039</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,25 +23145,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>145.2236497783945</v>
@@ -23385,10 +23385,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23400,7 +23400,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,7 +23431,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23464,7 +23464,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23495,13 +23495,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23592,10 +23592,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>99.88899055338268</v>
+        <v>37.01560241437871</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23701,7 +23701,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23774,31 +23774,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23826,10 +23826,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="19">
@@ -23938,13 +23938,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,19 +24020,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>97.54843351316518</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24057,10 +24057,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>45.0315933124527</v>
+        <v>87.92331920053414</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,19 +24099,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24145,10 +24145,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -24169,10 +24169,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>121.8499558845326</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>61.53338767417523</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24412,13 +24412,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,7 +24455,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,13 +24485,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,10 +24500,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,19 +24522,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>130.1581262101424</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,19 +24570,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>81.92698065511951</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24658,13 +24658,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,22 +24686,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152922</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="30">
@@ -24762,10 +24762,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>89.41550096571598</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>78.3443881864965</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,10 +25047,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>150.1070334262686</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>182.397745374651</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>172.5871400214005</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.264340050607</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,10 +25281,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>150.8536247525263</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,10 +25296,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>92.97244319957488</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S42" t="n">
-        <v>36.26901108812098</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,13 +25916,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25950,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>74.95152673224426</v>
+        <v>107.5873851868479</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25995,13 +25995,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760798</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760798</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482044.5851760798</v>
+        <v>482044.5851760797</v>
       </c>
     </row>
   </sheetData>
@@ -26332,7 +26332,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="I2" t="n">
-        <v>124620.5043984993</v>
+        <v>124620.5043984994</v>
       </c>
       <c r="J2" t="n">
         <v>124620.5043984993</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30720.10769596762</v>
+        <v>-29712.46410942938</v>
       </c>
       <c r="C6" t="n">
-        <v>50049.32383558009</v>
+        <v>51056.96742211836</v>
       </c>
       <c r="D6" t="n">
-        <v>50049.32383558009</v>
+        <v>51056.96742211834</v>
       </c>
       <c r="E6" t="n">
-        <v>83676.92383558011</v>
+        <v>84684.56742211836</v>
       </c>
       <c r="F6" t="n">
-        <v>83676.92383558014</v>
+        <v>84684.56742211836</v>
       </c>
       <c r="G6" t="n">
-        <v>83676.92383558012</v>
+        <v>84684.56742211836</v>
       </c>
       <c r="H6" t="n">
-        <v>83676.92383558011</v>
+        <v>84684.56742211833</v>
       </c>
       <c r="I6" t="n">
-        <v>83676.92383558009</v>
+        <v>84684.56742211842</v>
       </c>
       <c r="J6" t="n">
-        <v>20616.98123647386</v>
+        <v>21624.62482301213</v>
       </c>
       <c r="K6" t="n">
-        <v>83676.92383558011</v>
+        <v>84684.56742211831</v>
       </c>
       <c r="L6" t="n">
-        <v>83676.92383558011</v>
+        <v>84684.56742211837</v>
       </c>
       <c r="M6" t="n">
-        <v>83676.92383558011</v>
+        <v>84684.56742211836</v>
       </c>
       <c r="N6" t="n">
-        <v>83676.92383558008</v>
+        <v>84684.56742211836</v>
       </c>
       <c r="O6" t="n">
-        <v>83676.92383558009</v>
+        <v>84684.56742211837</v>
       </c>
       <c r="P6" t="n">
-        <v>83676.92383558011</v>
+        <v>84684.56742211834</v>
       </c>
     </row>
   </sheetData>
@@ -26811,10 +26811,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="L4" t="n">
         <v>241.0142888776591</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35732,10 +35732,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153931</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37637,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
